--- a/interview/interview results.xlsx
+++ b/interview/interview results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/young/Desktop/ArtworkOntology/interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6021A71F-18FE-4342-B8C6-AF2EA3C62C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C56F00-7915-6646-8724-7706852C68B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,9 +507,6 @@
     <t>Please see figure Aspects they consider</t>
   </si>
   <si>
-    <t>Please see the flow chart</t>
-  </si>
-  <si>
     <t>Please see the sheet "importance of different aspects"</t>
   </si>
   <si>
@@ -589,6 +586,9 @@
   </si>
   <si>
     <t>Interpretation</t>
+  </si>
+  <si>
+    <t>Please see the flow chart. The number on the arrow means the count that this sequence appears</t>
   </si>
 </sst>
 </file>
@@ -1089,6 +1089,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6D8E-A344-954E-AE0B479D1901}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1104,6 +1109,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6D8E-A344-954E-AE0B479D1901}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -5280,13 +5290,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>89535</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5312,102 +5322,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3781425" y="7905750"/>
-          <a:ext cx="4572000" cy="2562225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{651FEE2C-6045-7D6F-7EFA-42FA96550C16}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{59D3A016-87C0-7D85-1E30-9873C73F05CB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8629650" y="8067675"/>
-          <a:ext cx="4572000" cy="2076450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF152AFC-294E-BDEB-2DAD-8D2E6542A3D8}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{651FEE2C-6045-7D6F-7EFA-42FA96550C16}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="104775" y="10363200"/>
-          <a:ext cx="4572000" cy="2190750"/>
+          <a:off x="4273550" y="7918450"/>
+          <a:ext cx="4998720" cy="2595245"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5446,7 +5362,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5465,26 +5381,111 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>450851</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>130658</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>131907</xdr:rowOff>
+      <xdr:rowOff>136983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>479426</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>122382</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>299401</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>186083</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
+        <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E20A28F-F0FB-1F9B-3CF2-68D30D5CECE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A728A6A-41F0-F929-E9F3-1BD995C10CB3}"/>
             </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1624C217-2098-72FA-0F85-F460AC5DCB9D}"/>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10229698" y="2839543"/>
+          <a:ext cx="4192103" cy="5261180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>91441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>140251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5262783E-AF36-41D7-D909-520110A7FFD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2794001"/>
+          <a:ext cx="4826000" cy="5067850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>22267</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD6EC97-7E4A-F6B9-E193-56F4DA934C13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5500,8 +5501,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9882044" y="2758498"/>
-          <a:ext cx="4055052" cy="4493202"/>
+          <a:off x="4947920" y="3088640"/>
+          <a:ext cx="5120640" cy="4462187"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5512,26 +5513,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>66322</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>115124</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>104422</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>105599</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>284480</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>172029</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
+        <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34EA66F7-48ED-CDE7-0EB0-0B9EBB976387}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8E20A28F-F0FB-1F9B-3CF2-68D30D5CECE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BDCBE30-CED8-EB6E-2697-1575FA2B8709}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5547,8 +5545,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="66322" y="3125494"/>
-          <a:ext cx="4779433" cy="4506031"/>
+          <a:off x="9702800" y="8199120"/>
+          <a:ext cx="5374640" cy="2397069"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5559,26 +5557,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>385704</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>107244</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>67146</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>154869</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>233680</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>58259</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
+        <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0690F53D-3E73-C623-AC99-6C8752A1643B}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{34EA66F7-48ED-CDE7-0EB0-0B9EBB976387}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15D42A6-D082-C474-9DA9-B3ABA15B4F1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5594,8 +5589,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5127037" y="3117614"/>
-          <a:ext cx="5100109" cy="3998736"/>
+          <a:off x="152400" y="10505440"/>
+          <a:ext cx="4815840" cy="2293459"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5937,7 +5932,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -6001,13 +5996,13 @@
         <v>1</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="409.6">
@@ -6045,10 +6040,10 @@
         <v>11</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O2" s="1">
         <v>10</v>
@@ -6098,7 +6093,7 @@
         <v>12</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O3" s="1">
         <v>10</v>
@@ -6148,13 +6143,13 @@
         <v>24</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="409.6">
@@ -6204,13 +6199,13 @@
         <v>0.4</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="409.6">
@@ -6300,7 +6295,7 @@
     </row>
     <row r="8" spans="1:21" ht="409.6">
       <c r="A8" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>58</v>
@@ -6429,13 +6424,13 @@
         <v>93</v>
       </c>
       <c r="O11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="409.6">
@@ -6485,10 +6480,10 @@
         <v>0.5</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="409.6">
@@ -6545,8 +6540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7176F338-7ED3-4786-B047-F70FCB1E88E6}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6556,10 +6551,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
         <v>152</v>
-      </c>
-      <c r="B1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6588,7 +6583,7 @@
         <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6596,7 +6591,7 @@
         <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6604,15 +6599,15 @@
         <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6620,7 +6615,7 @@
         <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -6629,7 +6624,7 @@
         <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6637,7 +6632,7 @@
         <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6647,7 +6642,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -6672,7 +6667,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -6711,7 +6706,7 @@
         <v>129</v>
       </c>
       <c r="N1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -7178,7 +7173,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="B13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/interview/interview results.xlsx
+++ b/interview/interview results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/young/Desktop/ArtworkOntology/interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C56F00-7915-6646-8724-7706852C68B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C339FD72-593A-AA44-B27E-5858588A1909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="171">
   <si>
     <t>question</t>
   </si>
@@ -589,6 +589,9 @@
   </si>
   <si>
     <t>Please see the flow chart. The number on the arrow means the count that this sequence appears</t>
+  </si>
+  <si>
+    <t>The number at the end of each label in the figures is the count that this label appears in the interview results</t>
   </si>
 </sst>
 </file>
@@ -5288,15 +5291,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>554990</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:rowOff>176530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>89535</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>189230</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>69215</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5322,7 +5325,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4273550" y="7918450"/>
+          <a:off x="4618990" y="8091170"/>
           <a:ext cx="4998720" cy="2595245"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5427,14 +5430,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>91441</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>140251</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>150411</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5457,7 +5460,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2794001"/>
+          <a:off x="0" y="2997201"/>
           <a:ext cx="4826000" cy="5067850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5513,50 +5516,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>284480</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>172029</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BDCBE30-CED8-EB6E-2697-1575FA2B8709}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9702800" y="8199120"/>
-          <a:ext cx="5374640" cy="2397069"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>54</xdr:row>
@@ -5582,7 +5541,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5591,6 +5550,50 @@
         <a:xfrm>
           <a:off x="152400" y="10505440"/>
           <a:ext cx="4815840" cy="2293459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>497840</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>290885</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>140448</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54EC173B-2F7C-3FB8-8D1F-0CE4EB66A161}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9926320" y="8260080"/>
+          <a:ext cx="5157525" cy="2304528"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5944,9 +5947,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EE3428-C7E5-4457-A95A-B4C2C3B1C0FB}">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="10" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T5" sqref="T5"/>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6540,8 +6543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7176F338-7ED3-4786-B047-F70FCB1E88E6}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6638,6 +6641,11 @@
     <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:3">

--- a/interview/interview results.xlsx
+++ b/interview/interview results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/young/Desktop/ArtworkOntology/interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C339FD72-593A-AA44-B27E-5858588A1909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D1F91A-7C50-7B40-89C9-1B27686B8FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="5" r:id="rId1"/>
@@ -5925,7 +5925,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5947,7 +5947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EE3428-C7E5-4457-A95A-B4C2C3B1C0FB}">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
@@ -6543,8 +6543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7176F338-7ED3-4786-B047-F70FCB1E88E6}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/interview/interview results.xlsx
+++ b/interview/interview results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/young/Desktop/ArtworkOntology/interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D1F91A-7C50-7B40-89C9-1B27686B8FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB517B6-6145-4249-9E70-FB8DED74C2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="172">
   <si>
     <t>question</t>
   </si>
@@ -468,39 +468,6 @@
     <t>Rank</t>
   </si>
   <si>
-    <t>Artist.</t>
-  </si>
-  <si>
-    <t>Background about the Artist.</t>
-  </si>
-  <si>
-    <t>Background about the Painting.</t>
-  </si>
-  <si>
-    <t>Composition.</t>
-  </si>
-  <si>
-    <t>Content.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emotion </t>
-  </si>
-  <si>
-    <t>Interpretation.</t>
-  </si>
-  <si>
-    <t>Objects.</t>
-  </si>
-  <si>
-    <t>Style / Technique.</t>
-  </si>
-  <si>
-    <t>Theme of the Painting.</t>
-  </si>
-  <si>
-    <t>Visual Elements.</t>
-  </si>
-  <si>
     <t>Please see figure Familiar Paintings and Unfamiliar Paintings</t>
   </si>
   <si>
@@ -538,9 +505,6 @@
   </si>
   <si>
     <t>For each question, we analyse it through a suitable way. For most of the question, we use Ground Theory, which is used to analyse the interview and find the key points from the interview, to analyse their opinions through their answers.  For the order of aspects, we create a flow chart to present the flow they mentioned. And for the importance of these aspects, we create a table to represent the rank of each element, and then using the Kendall's W metric to calculate if the rank is consistent among all participants.</t>
-  </si>
-  <si>
-    <t>(the number is the importance of the rank of these aspects)</t>
   </si>
   <si>
     <t>Aspects\Importance Ranks By Participants</t>
@@ -588,17 +552,59 @@
     <t>Interpretation</t>
   </si>
   <si>
-    <t>Please see the flow chart. The number on the arrow means the count that this sequence appears</t>
-  </si>
-  <si>
     <t>The number at the end of each label in the figures is the count that this label appears in the interview results</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>(the number is the importance of the rank of these aspects. Number 1 means the most relevant and number 11 means the least relevant)</t>
+  </si>
+  <si>
+    <t>Please see the flow chart. The number on the arrow means the count that this sequence appears. If there's no number, it means it only appears once.</t>
+  </si>
+  <si>
+    <t>Artist(who create this artwork)</t>
+  </si>
+  <si>
+    <t>Background about the Artist</t>
+  </si>
+  <si>
+    <t>Background about the Painting</t>
+  </si>
+  <si>
+    <t>Composition</t>
+  </si>
+  <si>
+    <t>Style / Technique</t>
+  </si>
+  <si>
+    <t>Theme of the Painting</t>
+  </si>
+  <si>
+    <t>Emotion</t>
+  </si>
+  <si>
+    <t>Interpretation (the meaning or symbolism)</t>
+  </si>
+  <si>
+    <t>Objects (The objects appears in the painting)</t>
+  </si>
+  <si>
+    <t>Visual Elements (the basic elements, including the colour, line, etc.)</t>
+  </si>
+  <si>
+    <t>Content (the overall content of the painting)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,15 +631,31 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="20"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow (Body)"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -656,13 +678,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -677,6 +698,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5924,9 +5949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A884BD54-F633-534E-BE9B-0DC7E593FC8E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -5934,8 +5957,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="409" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>158</v>
+      <c r="A1" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -5947,9 +5970,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EE3428-C7E5-4457-A95A-B4C2C3B1C0FB}">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="D1" zoomScale="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5999,13 +6022,13 @@
         <v>1</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="409.6">
@@ -6043,10 +6066,10 @@
         <v>11</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="O2" s="1">
         <v>10</v>
@@ -6096,7 +6119,7 @@
         <v>12</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="O3" s="1">
         <v>10</v>
@@ -6146,13 +6169,13 @@
         <v>24</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="409.6">
@@ -6186,29 +6209,29 @@
       <c r="J5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="6">
         <v>0.6</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="6">
         <v>0.9</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="6">
         <v>0.4</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="409.6">
@@ -6242,19 +6265,19 @@
       <c r="J6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>45</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="6">
         <v>1</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="6">
         <v>0.6</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="6">
         <v>0.5</v>
       </c>
     </row>
@@ -6286,10 +6309,10 @@
       <c r="I7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>56</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -6298,7 +6321,7 @@
     </row>
     <row r="8" spans="1:21" ht="409.6">
       <c r="A8" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>58</v>
@@ -6364,10 +6387,10 @@
       <c r="A10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -6420,20 +6443,20 @@
       <c r="I11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="3" t="s">
         <v>92</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>93</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="409.6">
@@ -6467,26 +6490,26 @@
       <c r="J12" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="4" t="s">
         <v>102</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="6">
         <v>0.3</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="6">
         <v>0.3</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="6">
         <v>0.5</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="409.6">
@@ -6526,10 +6549,10 @@
       <c r="L13" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="T13" s="7">
+      <c r="T13" s="6">
         <v>0.5</v>
       </c>
-      <c r="U13" s="7">
+      <c r="U13" s="6">
         <v>0.5</v>
       </c>
     </row>
@@ -6543,8 +6566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7176F338-7ED3-4786-B047-F70FCB1E88E6}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A15" zoomScale="131" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6554,10 +6577,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6565,7 +6588,7 @@
         <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6578,7 +6601,7 @@
         <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6586,7 +6609,7 @@
         <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6594,7 +6617,7 @@
         <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6602,15 +6625,15 @@
         <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6618,7 +6641,7 @@
         <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -6627,7 +6650,7 @@
         <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6635,7 +6658,7 @@
         <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6645,12 +6668,12 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -6661,65 +6684,69 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1588D2E3-A372-4E40-BF59-94BFBB566CD3}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="175" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="1" max="1" width="31" style="9" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="7">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="7">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="7">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="7">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="7">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="7">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="7">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="7">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="7">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="7">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="N1" t="s">
-        <v>157</v>
+      <c r="O1" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>130</v>
+    <row r="2" spans="1:15">
+      <c r="A2" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -6755,13 +6782,17 @@
         <f t="shared" ref="L2:L12" si="0">AVERAGE(B2:K2)</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="10">
+        <f>STDEV(B2:K2)</f>
+        <v>3.4058772731852804</v>
+      </c>
+      <c r="N2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="2" t="s">
-        <v>131</v>
+    <row r="3" spans="1:15">
+      <c r="A3" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -6797,13 +6828,17 @@
         <f t="shared" si="0"/>
         <v>5.4</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="10">
+        <f t="shared" ref="M3:M12" si="1">STDEV(B3:K3)</f>
+        <v>3.40587727318528</v>
+      </c>
+      <c r="N3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="2" t="s">
-        <v>132</v>
+    <row r="4" spans="1:15">
+      <c r="A4" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -6839,13 +6874,17 @@
         <f t="shared" si="0"/>
         <v>5.8</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="10">
+        <f t="shared" si="1"/>
+        <v>2.8982753492378879</v>
+      </c>
+      <c r="N4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="2" t="s">
-        <v>133</v>
+    <row r="5" spans="1:15">
+      <c r="A5" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -6881,13 +6920,17 @@
         <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="10">
+        <f t="shared" si="1"/>
+        <v>3.4576806613039839</v>
+      </c>
+      <c r="N5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="2" t="s">
-        <v>134</v>
+    <row r="6" spans="1:15">
+      <c r="A6" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -6923,13 +6966,17 @@
         <f t="shared" si="0"/>
         <v>4.7</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="10">
+        <f t="shared" si="1"/>
+        <v>2.7507574714370344</v>
+      </c>
+      <c r="N6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="2" t="s">
-        <v>135</v>
+    <row r="7" spans="1:15">
+      <c r="A7" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6965,13 +7012,17 @@
         <f t="shared" si="0"/>
         <v>6.7</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="10">
+        <f t="shared" si="1"/>
+        <v>2.907843798341919</v>
+      </c>
+      <c r="N7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="2" t="s">
-        <v>136</v>
+    <row r="8" spans="1:15">
+      <c r="A8" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -7007,13 +7058,17 @@
         <f t="shared" si="0"/>
         <v>5.9</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="10">
+        <f t="shared" si="1"/>
+        <v>2.2335820757001268</v>
+      </c>
+      <c r="N8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="2" t="s">
-        <v>137</v>
+    <row r="9" spans="1:15">
+      <c r="A9" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -7049,13 +7104,17 @@
         <f t="shared" si="0"/>
         <v>7.3</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="10">
+        <f t="shared" si="1"/>
+        <v>1.7669811040931436</v>
+      </c>
+      <c r="N9">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="2" t="s">
-        <v>138</v>
+    <row r="10" spans="1:15">
+      <c r="A10" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -7091,13 +7150,17 @@
         <f t="shared" si="0"/>
         <v>5.6</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="10">
+        <f t="shared" si="1"/>
+        <v>3.40587727318528</v>
+      </c>
+      <c r="N10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="2" t="s">
-        <v>139</v>
+    <row r="11" spans="1:15">
+      <c r="A11" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -7133,13 +7196,17 @@
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="10">
+        <f t="shared" si="1"/>
+        <v>2.4608038433722332</v>
+      </c>
+      <c r="N11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="2" t="s">
-        <v>140</v>
+    <row r="12" spans="1:15">
+      <c r="A12" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -7175,18 +7242,22 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="10">
+        <f t="shared" si="1"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="N12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="B13" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M2:M12">
-    <sortCondition descending="1" ref="M2:M12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:N12">
+    <sortCondition descending="1" ref="N2:N12"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/interview/interview results.xlsx
+++ b/interview/interview results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/young/Desktop/ArtworkOntology/interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB517B6-6145-4249-9E70-FB8DED74C2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C9CA5E-0178-E040-93C4-BCE838C196F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="5" r:id="rId1"/>
@@ -602,7 +602,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -701,7 +701,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5970,9 +5970,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EE3428-C7E5-4457-A95A-B4C2C3B1C0FB}">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6566,8 +6566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7176F338-7ED3-4786-B047-F70FCB1E88E6}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="131" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="X17" zoomScale="234" zoomScaleNormal="234" workbookViewId="0">
+      <selection activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6686,8 +6686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1588D2E3-A372-4E40-BF59-94BFBB566CD3}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
